--- a/projects/test_building/input/_Scenario_BuildingComponent_Cost_OM.xlsx
+++ b/projects/test_building/input/_Scenario_BuildingComponent_Cost_OM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5687E2-20B7-224B-9588-18816620754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>id_scenario</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id_region</t>
   </si>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,23 +354,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,15 +383,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1">
+      <c r="G1">
         <v>2020</v>
       </c>
     </row>
